--- a/Calculo_Briones.xlsx
+++ b/Calculo_Briones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Mi_destino_Briones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0EC366-2763-4503-9C95-DEEFB551B567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EA27BB-35CF-490E-8D01-02768927941D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cálculo de la nota</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,20 +427,23 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <f>(C4*3)/100</f>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D5">
         <f>(D3+D4)</f>
-        <v>6.71</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D6">
         <f>ROUND(D5,0)</f>
         <v>7</v>
